--- a/debug/SKY_debug.xlsx
+++ b/debug/SKY_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD33"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -568,20 +568,25 @@
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
+          <t>Stop_Loss</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
           <t>cutoff_price</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>next_buy_level_name</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>next_buy_level_price</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>next_buy_trigger_price</t>
         </is>
@@ -671,17 +676,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA2" t="n">
-        <v/>
-      </c>
-      <c r="AB2" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB2" t="n">
+        <v/>
+      </c>
+      <c r="AC2" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC2" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD2" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE2" t="n">
         <v>0.07373</v>
       </c>
     </row>
@@ -769,17 +777,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA3" t="n">
-        <v/>
-      </c>
-      <c r="AB3" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB3" t="n">
+        <v/>
+      </c>
+      <c r="AC3" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC3" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD3" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE3" t="n">
         <v>0.07173</v>
       </c>
     </row>
@@ -867,17 +878,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA4" t="n">
-        <v/>
-      </c>
-      <c r="AB4" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB4" t="n">
+        <v/>
+      </c>
+      <c r="AC4" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC4" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD4" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE4" t="n">
         <v>0.06881</v>
       </c>
     </row>
@@ -965,17 +979,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA5" t="n">
-        <v/>
-      </c>
-      <c r="AB5" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB5" t="n">
+        <v/>
+      </c>
+      <c r="AC5" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC5" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD5" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE5" t="n">
         <v>0.0688</v>
       </c>
     </row>
@@ -1063,17 +1080,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA6" t="n">
-        <v/>
-      </c>
-      <c r="AB6" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB6" t="n">
+        <v/>
+      </c>
+      <c r="AC6" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC6" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD6" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE6" t="n">
         <v>0.06139</v>
       </c>
     </row>
@@ -1161,17 +1181,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA7" t="n">
-        <v/>
-      </c>
-      <c r="AB7" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB7" t="n">
+        <v/>
+      </c>
+      <c r="AC7" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC7" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD7" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE7" t="n">
         <v>0.06476</v>
       </c>
     </row>
@@ -1259,17 +1282,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA8" t="n">
-        <v/>
-      </c>
-      <c r="AB8" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB8" t="n">
+        <v/>
+      </c>
+      <c r="AC8" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC8" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD8" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE8" t="n">
         <v>0.06682</v>
       </c>
     </row>
@@ -1357,17 +1383,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA9" t="n">
-        <v/>
-      </c>
-      <c r="AB9" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB9" t="n">
+        <v/>
+      </c>
+      <c r="AC9" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC9" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD9" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE9" t="n">
         <v>0.06375</v>
       </c>
     </row>
@@ -1455,17 +1484,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA10" t="n">
-        <v/>
-      </c>
-      <c r="AB10" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB10" t="n">
+        <v/>
+      </c>
+      <c r="AC10" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC10" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD10" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE10" t="n">
         <v>0.06387</v>
       </c>
     </row>
@@ -1553,17 +1585,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA11" t="n">
-        <v/>
-      </c>
-      <c r="AB11" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB11" t="n">
+        <v/>
+      </c>
+      <c r="AC11" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC11" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD11" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE11" t="n">
         <v>0.06455</v>
       </c>
     </row>
@@ -1651,17 +1686,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA12" t="n">
-        <v/>
-      </c>
-      <c r="AB12" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB12" t="n">
+        <v/>
+      </c>
+      <c r="AC12" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC12" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD12" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE12" t="n">
         <v>0.06396</v>
       </c>
     </row>
@@ -1749,17 +1787,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA13" t="n">
-        <v/>
-      </c>
-      <c r="AB13" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB13" t="n">
+        <v/>
+      </c>
+      <c r="AC13" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC13" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD13" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE13" t="n">
         <v>0.06531000000000001</v>
       </c>
     </row>
@@ -1847,17 +1888,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA14" t="n">
-        <v/>
-      </c>
-      <c r="AB14" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB14" t="n">
+        <v/>
+      </c>
+      <c r="AC14" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC14" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD14" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE14" t="n">
         <v>0.06422</v>
       </c>
     </row>
@@ -1945,17 +1989,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA15" t="n">
-        <v/>
-      </c>
-      <c r="AB15" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB15" t="n">
+        <v/>
+      </c>
+      <c r="AC15" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC15" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD15" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE15" t="n">
         <v>0.06718</v>
       </c>
     </row>
@@ -2043,17 +2090,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA16" t="n">
-        <v/>
-      </c>
-      <c r="AB16" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB16" t="n">
+        <v/>
+      </c>
+      <c r="AC16" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC16" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD16" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE16" t="n">
         <v>0.06905</v>
       </c>
     </row>
@@ -2141,17 +2191,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA17" t="n">
-        <v/>
-      </c>
-      <c r="AB17" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB17" t="n">
+        <v/>
+      </c>
+      <c r="AC17" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC17" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD17" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE17" t="n">
         <v>0.06793</v>
       </c>
     </row>
@@ -2239,17 +2292,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA18" t="n">
-        <v/>
-      </c>
-      <c r="AB18" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB18" t="n">
+        <v/>
+      </c>
+      <c r="AC18" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC18" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD18" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE18" t="n">
         <v>0.06655999999999999</v>
       </c>
     </row>
@@ -2337,17 +2393,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA19" t="n">
-        <v/>
-      </c>
-      <c r="AB19" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB19" t="n">
+        <v/>
+      </c>
+      <c r="AC19" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC19" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD19" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE19" t="n">
         <v>0.06687</v>
       </c>
     </row>
@@ -2435,17 +2494,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA20" t="n">
-        <v/>
-      </c>
-      <c r="AB20" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB20" t="n">
+        <v/>
+      </c>
+      <c r="AC20" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC20" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD20" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE20" t="n">
         <v>0.06704</v>
       </c>
     </row>
@@ -2533,17 +2595,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA21" t="n">
-        <v/>
-      </c>
-      <c r="AB21" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB21" t="n">
+        <v/>
+      </c>
+      <c r="AC21" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC21" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD21" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE21" t="n">
         <v>0.06627</v>
       </c>
     </row>
@@ -2631,17 +2696,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA22" t="n">
-        <v/>
-      </c>
-      <c r="AB22" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB22" t="n">
+        <v/>
+      </c>
+      <c r="AC22" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC22" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD22" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE22" t="n">
         <v>0.06593</v>
       </c>
     </row>
@@ -2729,17 +2797,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA23" t="n">
-        <v/>
-      </c>
-      <c r="AB23" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB23" t="n">
+        <v/>
+      </c>
+      <c r="AC23" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC23" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD23" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE23" t="n">
         <v>0.06694</v>
       </c>
     </row>
@@ -2827,17 +2898,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA24" t="n">
-        <v/>
-      </c>
-      <c r="AB24" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB24" t="n">
+        <v/>
+      </c>
+      <c r="AC24" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC24" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD24" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE24" t="n">
         <v>0.06107</v>
       </c>
     </row>
@@ -2925,17 +2999,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA25" t="n">
-        <v/>
-      </c>
-      <c r="AB25" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB25" t="n">
+        <v/>
+      </c>
+      <c r="AC25" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC25" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD25" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE25" t="n">
         <v>0.056</v>
       </c>
     </row>
@@ -3023,17 +3100,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA26" t="n">
-        <v/>
-      </c>
-      <c r="AB26" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB26" t="n">
+        <v/>
+      </c>
+      <c r="AC26" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC26" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD26" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE26" t="n">
         <v>0.05773</v>
       </c>
     </row>
@@ -3121,17 +3201,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA27" t="n">
-        <v/>
-      </c>
-      <c r="AB27" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB27" t="n">
+        <v/>
+      </c>
+      <c r="AC27" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC27" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD27" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE27" t="n">
         <v>0.06196</v>
       </c>
     </row>
@@ -3219,17 +3302,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA28" t="n">
-        <v/>
-      </c>
-      <c r="AB28" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB28" t="n">
+        <v/>
+      </c>
+      <c r="AC28" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC28" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD28" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE28" t="n">
         <v>0.05943</v>
       </c>
     </row>
@@ -3317,17 +3403,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA29" t="n">
-        <v/>
-      </c>
-      <c r="AB29" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB29" t="n">
+        <v/>
+      </c>
+      <c r="AC29" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC29" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD29" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE29" t="n">
         <v>0.05855</v>
       </c>
     </row>
@@ -3415,17 +3504,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA30" t="n">
-        <v/>
-      </c>
-      <c r="AB30" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB30" t="n">
+        <v/>
+      </c>
+      <c r="AC30" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC30" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD30" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE30" t="n">
         <v>0.05853</v>
       </c>
     </row>
@@ -3513,17 +3605,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA31" t="n">
-        <v/>
-      </c>
-      <c r="AB31" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB31" t="n">
+        <v/>
+      </c>
+      <c r="AC31" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC31" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD31" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE31" t="n">
         <v>0.058</v>
       </c>
     </row>
@@ -3611,17 +3706,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA32" t="n">
-        <v/>
-      </c>
-      <c r="AB32" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB32" t="n">
+        <v/>
+      </c>
+      <c r="AC32" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC32" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD32" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE32" t="n">
         <v>0.05844</v>
       </c>
     </row>
@@ -3641,7 +3739,7 @@
         <v>0.05831</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05924</v>
+        <v>0.05927</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -3709,17 +3807,20 @@
         <v>0.0164619</v>
       </c>
       <c r="AA33" t="n">
-        <v/>
-      </c>
-      <c r="AB33" t="inlineStr">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB33" t="n">
+        <v/>
+      </c>
+      <c r="AC33" t="inlineStr">
         <is>
           <t>B7</t>
         </is>
       </c>
-      <c r="AC33" t="n">
-        <v>0.0164619</v>
-      </c>
       <c r="AD33" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE33" t="n">
         <v>0.05831</v>
       </c>
     </row>

--- a/debug/SKY_debug.xlsx
+++ b/debug/SKY_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE33"/>
+  <dimension ref="A1:AE40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3733,13 +3733,13 @@
         <v>0.05909</v>
       </c>
       <c r="C33" t="n">
-        <v>0.05988</v>
+        <v>0.05999</v>
       </c>
       <c r="D33" t="n">
         <v>0.05831</v>
       </c>
       <c r="E33" t="n">
-        <v>0.05927</v>
+        <v>0.05873</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
@@ -3822,6 +3822,713 @@
       </c>
       <c r="AE33" t="n">
         <v>0.05831</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.05872</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.05999</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.058</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.05834</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v/>
+      </c>
+      <c r="I34" t="n">
+        <v/>
+      </c>
+      <c r="J34" t="n">
+        <v/>
+      </c>
+      <c r="K34" t="n">
+        <v/>
+      </c>
+      <c r="L34" t="n">
+        <v/>
+      </c>
+      <c r="M34" t="n">
+        <v/>
+      </c>
+      <c r="N34" t="n">
+        <v/>
+      </c>
+      <c r="O34" t="n">
+        <v>0.07839</v>
+      </c>
+      <c r="P34" t="n">
+        <v/>
+      </c>
+      <c r="Q34" t="n">
+        <v/>
+      </c>
+      <c r="R34" t="n">
+        <v/>
+      </c>
+      <c r="S34" t="n">
+        <v>7</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0.0438984</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0.0407628</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.0360594</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0.0321399</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.0274365</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>0.0219492</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB34" t="n">
+        <v/>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD34" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.0583</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.06223</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.05785</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.05804</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v/>
+      </c>
+      <c r="I35" t="n">
+        <v/>
+      </c>
+      <c r="J35" t="n">
+        <v/>
+      </c>
+      <c r="K35" t="n">
+        <v/>
+      </c>
+      <c r="L35" t="n">
+        <v/>
+      </c>
+      <c r="M35" t="n">
+        <v/>
+      </c>
+      <c r="N35" t="n">
+        <v/>
+      </c>
+      <c r="O35" t="n">
+        <v>0.07839</v>
+      </c>
+      <c r="P35" t="n">
+        <v/>
+      </c>
+      <c r="Q35" t="n">
+        <v/>
+      </c>
+      <c r="R35" t="n">
+        <v/>
+      </c>
+      <c r="S35" t="n">
+        <v>7</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.0438984</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.0407628</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.0360594</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0.0321399</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.0274365</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.0219492</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB35" t="n">
+        <v/>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>0.05785</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.05805</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.05984</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.05715</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.05804</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v/>
+      </c>
+      <c r="I36" t="n">
+        <v/>
+      </c>
+      <c r="J36" t="n">
+        <v/>
+      </c>
+      <c r="K36" t="n">
+        <v/>
+      </c>
+      <c r="L36" t="n">
+        <v/>
+      </c>
+      <c r="M36" t="n">
+        <v/>
+      </c>
+      <c r="N36" t="n">
+        <v/>
+      </c>
+      <c r="O36" t="n">
+        <v>0.07839</v>
+      </c>
+      <c r="P36" t="n">
+        <v/>
+      </c>
+      <c r="Q36" t="n">
+        <v/>
+      </c>
+      <c r="R36" t="n">
+        <v/>
+      </c>
+      <c r="S36" t="n">
+        <v>7</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0.0438984</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.0407628</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.0360594</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0.0321399</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.0274365</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>0.0219492</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB36" t="n">
+        <v/>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD36" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0.05715</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.05803</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.06058</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.05789</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.05857</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v/>
+      </c>
+      <c r="I37" t="n">
+        <v/>
+      </c>
+      <c r="J37" t="n">
+        <v/>
+      </c>
+      <c r="K37" t="n">
+        <v/>
+      </c>
+      <c r="L37" t="n">
+        <v/>
+      </c>
+      <c r="M37" t="n">
+        <v/>
+      </c>
+      <c r="N37" t="n">
+        <v/>
+      </c>
+      <c r="O37" t="n">
+        <v>0.07839</v>
+      </c>
+      <c r="P37" t="n">
+        <v/>
+      </c>
+      <c r="Q37" t="n">
+        <v/>
+      </c>
+      <c r="R37" t="n">
+        <v/>
+      </c>
+      <c r="S37" t="n">
+        <v>7</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0.0438984</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0.0407628</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.0360594</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0.0321399</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0.0274365</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>0.0219492</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB37" t="n">
+        <v/>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD37" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0.05789</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0.05858</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.06025</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.05726</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.05791</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v/>
+      </c>
+      <c r="I38" t="n">
+        <v/>
+      </c>
+      <c r="J38" t="n">
+        <v/>
+      </c>
+      <c r="K38" t="n">
+        <v/>
+      </c>
+      <c r="L38" t="n">
+        <v/>
+      </c>
+      <c r="M38" t="n">
+        <v/>
+      </c>
+      <c r="N38" t="n">
+        <v/>
+      </c>
+      <c r="O38" t="n">
+        <v>0.07839</v>
+      </c>
+      <c r="P38" t="n">
+        <v/>
+      </c>
+      <c r="Q38" t="n">
+        <v/>
+      </c>
+      <c r="R38" t="n">
+        <v/>
+      </c>
+      <c r="S38" t="n">
+        <v>7</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0.0438984</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.0407628</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.0360594</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0.0321399</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.0274365</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>0.0219492</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB38" t="n">
+        <v/>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD38" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>0.05726</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0.05789</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.05874</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.05736</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.05761</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v/>
+      </c>
+      <c r="I39" t="n">
+        <v/>
+      </c>
+      <c r="J39" t="n">
+        <v/>
+      </c>
+      <c r="K39" t="n">
+        <v/>
+      </c>
+      <c r="L39" t="n">
+        <v/>
+      </c>
+      <c r="M39" t="n">
+        <v/>
+      </c>
+      <c r="N39" t="n">
+        <v/>
+      </c>
+      <c r="O39" t="n">
+        <v>0.07839</v>
+      </c>
+      <c r="P39" t="n">
+        <v/>
+      </c>
+      <c r="Q39" t="n">
+        <v/>
+      </c>
+      <c r="R39" t="n">
+        <v/>
+      </c>
+      <c r="S39" t="n">
+        <v>7</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.0438984</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.0407628</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.0360594</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0.0321399</v>
+      </c>
+      <c r="X39" t="n">
+        <v>0.0274365</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>0.0219492</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB39" t="n">
+        <v/>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD39" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>0.05736</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0.0576</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.05957</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.05713</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.05918</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>high</t>
+        </is>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v/>
+      </c>
+      <c r="I40" t="n">
+        <v/>
+      </c>
+      <c r="J40" t="n">
+        <v/>
+      </c>
+      <c r="K40" t="n">
+        <v/>
+      </c>
+      <c r="L40" t="n">
+        <v/>
+      </c>
+      <c r="M40" t="n">
+        <v/>
+      </c>
+      <c r="N40" t="n">
+        <v/>
+      </c>
+      <c r="O40" t="n">
+        <v>0.07839</v>
+      </c>
+      <c r="P40" t="n">
+        <v/>
+      </c>
+      <c r="Q40" t="n">
+        <v/>
+      </c>
+      <c r="R40" t="n">
+        <v/>
+      </c>
+      <c r="S40" t="n">
+        <v>7</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.0438984</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.0407628</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.0360594</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0.0321399</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0.0274365</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>0.0219492</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.0148941</v>
+      </c>
+      <c r="AB40" t="n">
+        <v/>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD40" t="n">
+        <v>0.0164619</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0.05713</v>
       </c>
     </row>
   </sheetData>
